--- a/Data/EC/NIT-9000800813.xlsx
+++ b/Data/EC/NIT-9000800813.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F51661-0EBA-40CB-9365-93E205459068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22AD47F-5CEF-4277-9E9D-BC099F1853B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{694D603F-B7C8-4A5F-BAF4-A3F1243A8B99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50AE10EF-5CAD-460A-91AF-415B5879BA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,160 +65,160 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1192738007</t>
+  </si>
+  <si>
+    <t>YASSER ACEVEDO BADEL</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
     <t>64699665</t>
   </si>
   <si>
     <t>KAREN SOLEDAD GUERRA PATERNINA</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1710</t>
   </si>
   <si>
+    <t>1096202083</t>
+  </si>
+  <si>
+    <t>INGRITH JOHANA PACHECO DUARTE</t>
+  </si>
+  <si>
     <t>1002391465</t>
   </si>
   <si>
     <t>VERONICA DIAZ GOMEZ</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1096202083</t>
-  </si>
-  <si>
-    <t>INGRITH JOHANA PACHECO DUARTE</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1192738007</t>
-  </si>
-  <si>
-    <t>YASSER ACEVEDO BADEL</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -632,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1691C14F-AC1F-2DA6-9876-C50B6379938E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894FADBE-0469-93B3-45E3-051F0054E147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B5BD6-0A28-4952-84F6-4AA2BE0E32C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41CF105-5571-479E-997A-B03B6D347B94}">
   <dimension ref="B2:J132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1161,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21640</v>
+        <v>26500</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1175,19 +1175,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>10820</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1204,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1313,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1342,13 +1342,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1359,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1388,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1405,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1434,13 +1434,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1480,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1497,19 +1497,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1526,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1549,13 +1549,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1595,13 +1595,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>12146</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>23607</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1681,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
@@ -1727,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1796,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1842,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1934,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1957,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -2003,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2026,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2072,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2095,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2118,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
@@ -2141,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2164,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
@@ -2187,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
@@ -2210,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2233,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F63" s="18">
-        <v>12146</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2256,13 +2256,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" s="18">
         <v>29509</v>
@@ -2279,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2325,13 +2325,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" s="18">
         <v>29509</v>
@@ -2348,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F68" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2371,19 +2371,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2394,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2417,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2440,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
         <v>29509</v>
@@ -2463,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2486,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2509,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
         <v>29509</v>
@@ -2532,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F76" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2555,13 +2555,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F77" s="18">
         <v>29509</v>
@@ -2578,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2601,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2624,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F80" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2647,16 +2647,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>21640</v>
       </c>
       <c r="G81" s="18">
         <v>737717</v>
@@ -2670,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2693,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2716,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>33125</v>
+        <v>24999</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2739,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F85" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2762,19 +2762,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F86" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2785,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2808,13 +2808,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F89" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2854,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F90" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2877,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F91" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2900,19 +2900,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F92" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2923,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2946,19 +2946,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F94" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2969,19 +2969,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2992,13 +2992,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3015,19 +3015,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3038,19 +3038,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F98" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3061,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3084,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F100" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3107,13 +3107,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3130,19 +3130,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3153,13 +3153,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3176,19 +3176,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F104" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F105" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3222,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3245,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F107" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3291,13 +3291,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3314,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F110" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3337,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F111" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3360,13 +3360,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3383,19 +3383,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F113" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3406,19 +3406,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F114" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3429,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F115" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3452,13 +3452,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3475,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F117" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G117" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3498,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F118" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G118" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3521,19 +3521,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F119" s="18">
         <v>29509</v>
       </c>
       <c r="G119" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3544,16 +3544,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3567,16 +3567,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3590,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
         <v>29509</v>
       </c>
       <c r="G122" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3613,19 +3613,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F123" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G123" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3636,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F124" s="18">
-        <v>26500</v>
+        <v>29509</v>
       </c>
       <c r="G124" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3659,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F125" s="18">
-        <v>23607</v>
+        <v>29509</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3682,16 +3682,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F126" s="24">
-        <v>24999</v>
+        <v>10820</v>
       </c>
       <c r="G126" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9000800813.xlsx
+++ b/Data/EC/NIT-9000800813.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22AD47F-5CEF-4277-9E9D-BC099F1853B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DB8A34-2EA6-4661-965E-C9BF666B4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50AE10EF-5CAD-460A-91AF-415B5879BA9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F6C5842-3231-4BB8-B0E6-94A2BBB165A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,160 +65,160 @@
     <t>CC</t>
   </si>
   <si>
+    <t>64699665</t>
+  </si>
+  <si>
+    <t>KAREN SOLEDAD GUERRA PATERNINA</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1002391465</t>
+  </si>
+  <si>
+    <t>VERONICA DIAZ GOMEZ</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1096202083</t>
+  </si>
+  <si>
+    <t>INGRITH JOHANA PACHECO DUARTE</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
     <t>1192738007</t>
   </si>
   <si>
     <t>YASSER ACEVEDO BADEL</t>
   </si>
   <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>64699665</t>
-  </si>
-  <si>
-    <t>KAREN SOLEDAD GUERRA PATERNINA</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1096202083</t>
-  </si>
-  <si>
-    <t>INGRITH JOHANA PACHECO DUARTE</t>
-  </si>
-  <si>
-    <t>1002391465</t>
-  </si>
-  <si>
-    <t>VERONICA DIAZ GOMEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +317,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +532,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +576,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894FADBE-0469-93B3-45E3-051F0054E147}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8B3835-604A-7814-F9F8-039961398FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41CF105-5571-479E-997A-B03B6D347B94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472F7661-1DE0-43D6-B8B8-51A0D1DD0E4A}">
   <dimension ref="B2:J132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1161,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26500</v>
+        <v>21640</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1198,19 +1198,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>10820</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1319,13 +1319,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1336,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1411,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1457,13 +1457,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1474,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1503,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1520,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1549,13 +1549,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1595,13 +1595,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1641,13 +1641,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>12146</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>23607</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
@@ -1704,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1727,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1750,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1796,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1842,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
@@ -1888,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1934,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
@@ -1980,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E52" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2003,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2026,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2072,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2095,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
@@ -2118,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2141,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
@@ -2164,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>12146</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2210,13 +2210,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
         <v>29509</v>
@@ -2233,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2256,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2279,10 +2279,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>40</v>
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2325,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2348,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
         <v>29509</v>
@@ -2371,19 +2371,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2394,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2417,13 +2417,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F71" s="18">
         <v>29509</v>
@@ -2440,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2463,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2486,13 +2486,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
         <v>29509</v>
@@ -2509,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2532,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2555,13 +2555,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
         <v>29509</v>
@@ -2578,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2601,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2624,13 +2624,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>29509</v>
@@ -2647,19 +2647,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
-        <v>21640</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2670,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2693,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2716,16 +2716,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F84" s="18">
-        <v>24999</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2739,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2762,19 +2762,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2785,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2808,19 +2808,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2854,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2877,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2900,19 +2900,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2923,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2946,19 +2946,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2969,19 +2969,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2992,13 +2992,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3015,19 +3015,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3038,19 +3038,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3061,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3084,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3107,19 +3107,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3130,13 +3130,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3153,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3176,19 +3176,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3199,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3222,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3245,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3268,13 +3268,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3291,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3314,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3337,13 +3337,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3360,19 +3360,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3383,19 +3383,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3406,13 +3406,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3429,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3452,19 +3452,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3475,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F117" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3498,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F118" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3521,19 +3521,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F119" s="18">
         <v>29509</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3544,16 +3544,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F120" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3567,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3590,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F122" s="18">
         <v>29509</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3613,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3636,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D124" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E124" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>26500</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3659,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E125" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>23607</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3682,16 +3682,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D126" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E126" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="F126" s="24">
-        <v>10820</v>
+        <v>24999</v>
       </c>
       <c r="G126" s="24">
         <v>781242</v>
